--- a/Restaurantframework/src/test/resources/RestaurantData.xlsx
+++ b/Restaurantframework/src/test/resources/RestaurantData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14475" windowHeight="6495" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14475" windowHeight="6495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="customer" sheetId="2" r:id="rId2"/>
     <sheet name="supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="waiter" sheetId="5" r:id="rId4"/>
+    <sheet name="waiter_dataprovider" sheetId="5" r:id="rId4"/>
     <sheet name="expense" sheetId="6" r:id="rId5"/>
     <sheet name="store" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="121">
   <si>
     <t>Product Type</t>
   </si>
@@ -343,6 +343,45 @@
   </si>
   <si>
     <t>store mail</t>
+  </si>
+  <si>
+    <t>waiter name</t>
+  </si>
+  <si>
+    <t>waiter phone</t>
+  </si>
+  <si>
+    <t>waiter email</t>
+  </si>
+  <si>
+    <t>waiter discount</t>
+  </si>
+  <si>
+    <t>jiya</t>
+  </si>
+  <si>
+    <t>jiya@gmail.com</t>
+  </si>
+  <si>
+    <t>jewal</t>
+  </si>
+  <si>
+    <t>jewal2gmail.comD5</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2034</t>
   </si>
 </sst>
 </file>
@@ -711,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,8 +878,8 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>2030</v>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,16 +910,16 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>15000</v>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
-        <v>20</v>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,24 +934,24 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
-        <v>20000</v>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>10</v>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
-        <v>12</v>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,16 +974,16 @@
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
-        <v>60000</v>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,8 +998,8 @@
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30">
-        <v>2031</v>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,16 +1030,16 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34">
-        <v>15000</v>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35">
-        <v>20</v>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,24 +1054,24 @@
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37">
-        <v>20000</v>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
-        <v>10</v>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B39">
-        <v>12</v>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,16 +1094,16 @@
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42">
-        <v>3</v>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
-      <c r="B43">
-        <v>60000</v>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,8 +1118,8 @@
       <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="B45">
-        <v>2032</v>
+      <c r="B45" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,16 +1150,16 @@
       <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
-        <v>15000</v>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50">
-        <v>20</v>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,24 +1174,24 @@
       <c r="A52" t="s">
         <v>24</v>
       </c>
-      <c r="B52">
-        <v>20000</v>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B53">
-        <v>10</v>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54">
-        <v>12</v>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,24 +1295,24 @@
       <c r="A67" t="s">
         <v>13</v>
       </c>
-      <c r="B67">
-        <v>10</v>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>36</v>
       </c>
-      <c r="B68">
-        <v>13</v>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B69">
-        <v>3</v>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -1281,16 +1320,16 @@
       <c r="A70" t="s">
         <v>41</v>
       </c>
-      <c r="B70">
-        <v>60000</v>
+      <c r="B70" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
-      <c r="B71">
-        <v>2034</v>
+      <c r="B71" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -1314,8 +1353,8 @@
       <c r="A74" t="s">
         <v>32</v>
       </c>
-      <c r="B74">
-        <v>2034</v>
+      <c r="B74" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="M74" s="1"/>
     </row>
@@ -1664,12 +1703,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>98665489</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>9867465444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1678,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/Restaurantframework/src/test/resources/RestaurantData.xlsx
+++ b/Restaurantframework/src/test/resources/RestaurantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14475" windowHeight="6495" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="waiter_dataprovider" sheetId="5" r:id="rId4"/>
     <sheet name="expense" sheetId="6" r:id="rId5"/>
     <sheet name="store" sheetId="7" r:id="rId6"/>
+    <sheet name="waiter" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
   <si>
     <t>Product Type</t>
   </si>
@@ -382,6 +383,39 @@
   </si>
   <si>
     <t>2034</t>
+  </si>
+  <si>
+    <t>alina</t>
+  </si>
+  <si>
+    <t>waiter phonenum</t>
+  </si>
+  <si>
+    <t>9856776767</t>
+  </si>
+  <si>
+    <t>alina@gmail.com</t>
+  </si>
+  <si>
+    <t>waiter store</t>
+  </si>
+  <si>
+    <t>jithu</t>
+  </si>
+  <si>
+    <t>984675677</t>
+  </si>
+  <si>
+    <t>azxv@gmail.com</t>
+  </si>
+  <si>
+    <t>waiter edit name</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>waiter edit phnnum</t>
   </si>
 </sst>
 </file>
@@ -750,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2077,4 +2111,108 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Restaurantframework/src/test/resources/RestaurantData.xlsx
+++ b/Restaurantframework/src/test/resources/RestaurantData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6615" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6615" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
   <si>
     <t>Product Type</t>
   </si>
@@ -157,9 +157,6 @@
     <t>mnc quantity</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
     <t>customer name</t>
   </si>
   <si>
@@ -416,6 +413,30 @@
   </si>
   <si>
     <t>waiter edit phnnum</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>edit store name</t>
+  </si>
+  <si>
+    <t>chiramel</t>
+  </si>
+  <si>
+    <t>edit phone number13134567788</t>
   </si>
 </sst>
 </file>
@@ -784,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,7 +1384,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -1388,7 +1409,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M74" s="1"/>
     </row>
@@ -1470,7 +1491,7 @@
         <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,7 +1499,7 @@
         <v>41</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,7 +1507,7 @@
         <v>44</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,7 +1515,7 @@
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1518,15 +1539,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>9999345646</v>
@@ -1534,15 +1555,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1550,15 +1571,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>98897989778</v>
@@ -1566,15 +1587,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1582,15 +1603,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>1012134</v>
@@ -1598,15 +1619,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -1614,10 +1635,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1646,15 +1667,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3">
         <v>965734123</v>
@@ -1662,23 +1683,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>9125734123</v>
@@ -1686,23 +1707,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>7878787887</v>
@@ -1710,18 +1731,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1753,41 +1774,41 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>98665489</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>9867465444</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1814,15 +1835,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>28</v>
@@ -1830,39 +1851,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
@@ -1870,39 +1891,39 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -1910,31 +1931,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="4">
         <v>45030</v>
@@ -1947,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,146 +1982,159 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
         <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
         <v>101</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
-        <v>104</v>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2129,79 +2163,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>1000000</v>
